--- a/biology/Botanique/Peter_Schousboe/Peter_Schousboe.xlsx
+++ b/biology/Botanique/Peter_Schousboe/Peter_Schousboe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter (ou Peder) Kofod Anker (ou Ancher) Schousboe est un botaniste danois né en 1766 à Rønne et mort en 1832 à Tanger (Maroc).
 </t>
@@ -511,11 +523,13 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schousboe est l'un des premiers botanistes européens à s'être intéressé à la flore marocaine e et en particulier à l'arganeraie. Il a monté et conduit une expédition botanique en Espagne et au Maroc de 1791 à 1793.
 Il a été consul général de Tanger dans les années 1800.
-Les récoltes d'algues qu'il a effectuées au Maroc et dans la Méditerranée ont été étudiées par Édouard Bornet[1].
+Les récoltes d'algues qu'il a effectuées au Maroc et dans la Méditerranée ont été étudiées par Édouard Bornet.
 Il est l'auteur d’Observations sur le règne végétal au Maroc, publié en danois-latin à Copenhague, et réédité à Paris en français-latin, augmenté de la synonymie, en 1874. On lui doit notamment la description de Salvia interrupta.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre  Schousboea (Combretaceae), nommé en son honneur par Carl Ludwig von Willdenow en 1799, a été depuis lors mis en synonymie avec le genre Combretum.
 </t>
